--- a/Copy of Beach Work HTMLversion.xlsx
+++ b/Copy of Beach Work HTMLversion.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="89">
   <si>
     <t>Name</t>
   </si>
@@ -257,15 +257,9 @@
     <t>Bank B</t>
   </si>
   <si>
-    <t>London</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
-    <t>Stockholm</t>
-  </si>
-  <si>
     <t>France</t>
   </si>
   <si>
@@ -275,22 +269,22 @@
     <t>Spain</t>
   </si>
   <si>
-    <t>USA</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
     <t>Finland</t>
   </si>
   <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
     <t>Russia</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">united states of america </t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1029,7 @@
   <dimension ref="B1:N51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1043,7 +1037,7 @@
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" customWidth="1"/>
@@ -1103,7 +1097,7 @@
         <v>56</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E2" s="30"/>
       <c r="F2" s="22" t="s">
@@ -1121,7 +1115,7 @@
       </c>
       <c r="K2" s="12">
         <f t="shared" ref="K2:K30" ca="1" si="0">IF(COUNTA(J2)=1,IF(ISERROR(J2-TODAY()),"Deadline missing",IF(J2-TODAY()&lt;0,"Past deadline",IF(J2-TODAY()=0,"Due today",J2-TODAY()))),"")</f>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L2" s="8" t="str">
         <f t="shared" ref="L2:L30" ca="1" si="1">IF(OR(D:D="HOL",D:D="Pat L"),"On holiday",IF(C:C="No","",IF(OR(K2="Past deadline",K2="Deadline missing"),"Unassigned","Ongoing")))</f>
@@ -1138,7 +1132,7 @@
         <v>56</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="22" t="s">
@@ -1156,7 +1150,7 @@
       </c>
       <c r="K3" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L3" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1173,7 +1167,7 @@
         <v>56</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="22" t="s">
@@ -1191,7 +1185,7 @@
       </c>
       <c r="K4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L4" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1208,7 +1202,7 @@
         <v>57</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="22" t="s">
@@ -1226,7 +1220,7 @@
       </c>
       <c r="K5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L5" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1243,7 +1237,7 @@
         <v>56</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="22" t="s">
@@ -1261,7 +1255,7 @@
       </c>
       <c r="K6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L6" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1277,7 +1271,7 @@
         <v>57</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="22" t="s">
@@ -1295,7 +1289,7 @@
       </c>
       <c r="K7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L7" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1311,7 +1305,7 @@
         <v>56</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="22" t="s">
@@ -1329,7 +1323,7 @@
       </c>
       <c r="K8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L8" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1345,7 +1339,7 @@
         <v>57</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="22" t="s">
@@ -1363,7 +1357,7 @@
       </c>
       <c r="K9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L9" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1379,7 +1373,7 @@
         <v>56</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="22" t="s">
@@ -1397,7 +1391,7 @@
       </c>
       <c r="K10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L10" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1413,7 +1407,7 @@
         <v>57</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="22" t="s">
@@ -1431,7 +1425,7 @@
       </c>
       <c r="K11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L11" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1447,7 +1441,7 @@
         <v>56</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="22" t="s">
@@ -1465,7 +1459,7 @@
       </c>
       <c r="K12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L12" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1481,7 +1475,7 @@
         <v>57</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="22" t="s">
@@ -1499,7 +1493,7 @@
       </c>
       <c r="K13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L13" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1515,7 +1509,7 @@
         <v>56</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="22" t="s">
@@ -1533,7 +1527,7 @@
       </c>
       <c r="K14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L14" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1549,7 +1543,7 @@
         <v>57</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="22" t="s">
@@ -1567,7 +1561,7 @@
       </c>
       <c r="K15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L15" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1583,7 +1577,7 @@
         <v>56</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="22" t="s">
@@ -1601,7 +1595,7 @@
       </c>
       <c r="K16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L16" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1617,7 +1611,7 @@
         <v>57</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="22" t="s">
@@ -1635,7 +1629,7 @@
       </c>
       <c r="K17" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L17" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1651,7 +1645,7 @@
         <v>56</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="22" t="s">
@@ -1669,7 +1663,7 @@
       </c>
       <c r="K18" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L18" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1685,7 +1679,7 @@
         <v>57</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="22" t="s">
@@ -1703,7 +1697,7 @@
       </c>
       <c r="K19" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L19" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1719,7 +1713,7 @@
         <v>56</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="22" t="s">
@@ -1737,7 +1731,7 @@
       </c>
       <c r="K20" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L20" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1753,7 +1747,7 @@
         <v>57</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="22" t="s">
@@ -1771,7 +1765,7 @@
       </c>
       <c r="K21" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L21" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1787,7 +1781,7 @@
         <v>56</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="22" t="s">
@@ -1805,7 +1799,7 @@
       </c>
       <c r="K22" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L22" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1821,7 +1815,7 @@
         <v>57</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="22" t="s">
@@ -1839,7 +1833,7 @@
       </c>
       <c r="K23" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L23" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1855,7 +1849,7 @@
         <v>56</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="22" t="s">
@@ -1873,7 +1867,7 @@
       </c>
       <c r="K24" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L24" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1889,7 +1883,7 @@
         <v>57</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="22" t="s">
@@ -1907,7 +1901,7 @@
       </c>
       <c r="K25" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L25" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1923,7 +1917,7 @@
         <v>56</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="22" t="s">
@@ -1941,7 +1935,7 @@
       </c>
       <c r="K26" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L26" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1957,7 +1951,7 @@
         <v>57</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="22" t="s">
@@ -1975,7 +1969,7 @@
       </c>
       <c r="K27" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L27" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1991,7 +1985,7 @@
         <v>56</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="22" t="s">
@@ -2009,7 +2003,7 @@
       </c>
       <c r="K28" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L28" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2025,7 +2019,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="22" t="s">
@@ -2043,7 +2037,7 @@
       </c>
       <c r="K29" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L29" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2059,7 +2053,7 @@
         <v>56</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="22" t="s">
@@ -2077,7 +2071,7 @@
       </c>
       <c r="K30" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L30" s="8" t="str">
         <f t="shared" ca="1" si="1"/>

--- a/Copy of Beach Work HTMLversion.xlsx
+++ b/Copy of Beach Work HTMLversion.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="90">
   <si>
     <t>Name</t>
   </si>
@@ -284,7 +284,10 @@
     <t>United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">united states of america </t>
+    <t>united states</t>
+  </si>
+  <si>
+    <t xml:space="preserve">united states </t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1032,7 @@
   <dimension ref="B1:N51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1645,7 +1648,7 @@
         <v>56</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="22" t="s">
@@ -1985,7 +1988,7 @@
         <v>56</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="22" t="s">

--- a/Copy of Beach Work HTMLversion.xlsx
+++ b/Copy of Beach Work HTMLversion.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="89">
   <si>
     <t>Name</t>
   </si>
@@ -284,10 +284,7 @@
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>united states</t>
-  </si>
-  <si>
-    <t xml:space="preserve">united states </t>
+    <t>United States</t>
   </si>
 </sst>
 </file>
@@ -1648,7 +1645,7 @@
         <v>56</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="22" t="s">
@@ -1988,7 +1985,7 @@
         <v>56</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="22" t="s">

--- a/Copy of Beach Work HTMLversion.xlsx
+++ b/Copy of Beach Work HTMLversion.xlsx
@@ -275,9 +275,6 @@
     <t>Finland</t>
   </si>
   <si>
-    <t>Russia</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -285,6 +282,9 @@
   </si>
   <si>
     <t>United States</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1029,7 @@
   <dimension ref="B1:N51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D19" sqref="D19:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1097,7 +1097,7 @@
         <v>56</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="30"/>
       <c r="F2" s="22" t="s">
@@ -1132,7 +1132,7 @@
         <v>56</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="22" t="s">
@@ -1305,7 +1305,7 @@
         <v>56</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="22" t="s">
@@ -1339,7 +1339,7 @@
         <v>57</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="22" t="s">
@@ -1441,7 +1441,7 @@
         <v>56</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="22" t="s">
@@ -1475,7 +1475,7 @@
         <v>57</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="22" t="s">
@@ -1645,7 +1645,7 @@
         <v>56</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="22" t="s">
@@ -1679,7 +1679,7 @@
         <v>57</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="22" t="s">
@@ -1781,7 +1781,7 @@
         <v>56</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="22" t="s">
@@ -1815,7 +1815,7 @@
         <v>57</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="22" t="s">
@@ -1985,7 +1985,7 @@
         <v>56</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="22" t="s">
@@ -2019,7 +2019,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="22" t="s">

--- a/Copy of Beach Work HTMLversion.xlsx
+++ b/Copy of Beach Work HTMLversion.xlsx
@@ -98,9 +98,6 @@
     <t>Client</t>
   </si>
   <si>
-    <t>Deadline/End date</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -285,6 +282,9 @@
   </si>
   <si>
     <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Deadline</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1029,7 @@
   <dimension ref="B1:N51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D29"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>24</v>
@@ -1064,10 +1064,10 @@
         <v>23</v>
       </c>
       <c r="F1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>32</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>33</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>25</v>
@@ -1076,16 +1076,16 @@
         <v>21</v>
       </c>
       <c r="J1" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="N1" s="3"/>
     </row>
@@ -1094,20 +1094,20 @@
         <v>1</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" s="30"/>
       <c r="F2" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="30"/>
       <c r="J2" s="32">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="K2" s="12">
         <f t="shared" ref="K2:K30" ca="1" si="0">IF(COUNTA(J2)=1,IF(ISERROR(J2-TODAY()),"Deadline missing",IF(J2-TODAY()&lt;0,"Past deadline",IF(J2-TODAY()=0,"Due today",J2-TODAY()))),"")</f>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L2" s="8" t="str">
         <f t="shared" ref="L2:L30" ca="1" si="1">IF(OR(D:D="HOL",D:D="Pat L"),"On holiday",IF(C:C="No","",IF(OR(K2="Past deadline",K2="Deadline missing"),"Unassigned","Ongoing")))</f>
@@ -1129,20 +1129,20 @@
         <v>11</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I3" s="28"/>
       <c r="J3" s="32">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="K3" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L3" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1164,20 +1164,20 @@
         <v>7</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4" s="28"/>
       <c r="J4" s="32">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="K4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L4" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1199,20 +1199,20 @@
         <v>4</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I5" s="25"/>
       <c r="J5" s="32">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="K5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L5" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1234,20 +1234,20 @@
         <v>3</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I6" s="25"/>
       <c r="J6" s="32">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="K6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L6" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1268,20 +1268,20 @@
         <v>2</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I7" s="28"/>
       <c r="J7" s="32">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="K7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L7" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1302,20 +1302,20 @@
         <v>18</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I8" s="25"/>
       <c r="J8" s="33">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="K8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L8" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1333,23 +1333,23 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I9" s="28"/>
       <c r="J9" s="33">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="K9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L9" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1370,20 +1370,20 @@
         <v>16</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I10" s="25"/>
       <c r="J10" s="33">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="K10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L10" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1404,20 +1404,20 @@
         <v>9</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I11" s="23"/>
       <c r="J11" s="33">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="K11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L11" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1435,23 +1435,23 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I12" s="25"/>
       <c r="J12" s="33">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="K12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L12" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1472,20 +1472,20 @@
         <v>12</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I13" s="23"/>
       <c r="J13" s="33">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="K13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L13" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1506,20 +1506,20 @@
         <v>13</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I14" s="23"/>
       <c r="J14" s="33">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="K14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L14" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1540,20 +1540,20 @@
         <v>19</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I15" s="25"/>
       <c r="J15" s="33">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="K15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L15" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1574,20 +1574,20 @@
         <v>10</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I16" s="28"/>
       <c r="J16" s="33">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="K16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L16" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1605,23 +1605,23 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I17" s="25"/>
       <c r="J17" s="33">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="K17" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L17" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1642,20 +1642,20 @@
         <v>15</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="33">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="K18" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L18" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1673,23 +1673,23 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I19" s="25"/>
       <c r="J19" s="33">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="K19" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L19" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1710,20 +1710,20 @@
         <v>8</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I20" s="23"/>
       <c r="J20" s="33">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="K20" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L20" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1744,20 +1744,20 @@
         <v>14</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I21" s="28"/>
       <c r="J21" s="33">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="K21" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L21" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1775,23 +1775,23 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="33">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="K22" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L22" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1812,20 +1812,20 @@
         <v>17</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I23" s="25"/>
       <c r="J23" s="33">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="K23" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L23" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1843,23 +1843,23 @@
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="23"/>
       <c r="J24" s="33">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="K24" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L24" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1877,23 +1877,23 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="25"/>
       <c r="J25" s="33">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="K25" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L25" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1914,20 +1914,20 @@
         <v>20</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I26" s="25"/>
       <c r="J26" s="33">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="K26" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L26" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1948,20 +1948,20 @@
         <v>6</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I27" s="23"/>
       <c r="J27" s="33">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="K27" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L27" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1982,20 +1982,20 @@
         <v>22</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I28" s="28"/>
       <c r="J28" s="33">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="K28" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L28" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2013,23 +2013,23 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I29" s="25"/>
       <c r="J29" s="33">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="K29" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L29" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2050,20 +2050,20 @@
         <v>5</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="I30" s="23"/>
       <c r="J30" s="33">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="K30" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L30" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2171,7 +2171,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2179,10 +2179,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3"/>
@@ -2190,59 +2190,59 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
